--- a/Code/Results/Cases/Case_2_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013615918416148</v>
+        <v>1.035313136245032</v>
       </c>
       <c r="D2">
-        <v>1.033948909554345</v>
+        <v>1.045885087409457</v>
       </c>
       <c r="E2">
-        <v>1.028290032833</v>
+        <v>1.052805140006511</v>
       </c>
       <c r="F2">
-        <v>1.037386091112559</v>
+        <v>1.0583272519715</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052820031162211</v>
+        <v>1.041396201793307</v>
       </c>
       <c r="J2">
-        <v>1.035396869008928</v>
+        <v>1.040427594019254</v>
       </c>
       <c r="K2">
-        <v>1.044954706290991</v>
+        <v>1.048652073421774</v>
       </c>
       <c r="L2">
-        <v>1.039368824564985</v>
+        <v>1.055552857427916</v>
       </c>
       <c r="M2">
-        <v>1.048348036477465</v>
+        <v>1.061059789117118</v>
       </c>
       <c r="N2">
-        <v>1.015682331719055</v>
+        <v>1.017443140021282</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017348613702309</v>
+        <v>1.036097815517028</v>
       </c>
       <c r="D3">
-        <v>1.036909530271106</v>
+        <v>1.046532055325228</v>
       </c>
       <c r="E3">
-        <v>1.032024400373797</v>
+        <v>1.053680937752309</v>
       </c>
       <c r="F3">
-        <v>1.041063019707585</v>
+        <v>1.059172040103021</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054045559300326</v>
+        <v>1.041595204610035</v>
       </c>
       <c r="J3">
-        <v>1.037377256811461</v>
+        <v>1.040856601863624</v>
       </c>
       <c r="K3">
-        <v>1.04709096201277</v>
+        <v>1.049111000415069</v>
       </c>
       <c r="L3">
-        <v>1.042263285778141</v>
+        <v>1.056241412644247</v>
       </c>
       <c r="M3">
-        <v>1.051196126721018</v>
+        <v>1.061718510450427</v>
       </c>
       <c r="N3">
-        <v>1.016341101042957</v>
+        <v>1.017585527122665</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019719138514404</v>
+        <v>1.036606015148782</v>
       </c>
       <c r="D4">
-        <v>1.038791884419025</v>
+        <v>1.04695106004817</v>
       </c>
       <c r="E4">
-        <v>1.034404895714029</v>
+        <v>1.054248984895267</v>
       </c>
       <c r="F4">
-        <v>1.043404467213624</v>
+        <v>1.059719698591816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054813632027215</v>
+        <v>1.041722832677424</v>
       </c>
       <c r="J4">
-        <v>1.038631532108071</v>
+        <v>1.041133971317666</v>
       </c>
       <c r="K4">
-        <v>1.048443626754213</v>
+        <v>1.049407642483705</v>
       </c>
       <c r="L4">
-        <v>1.044105086244849</v>
+        <v>1.056687659201148</v>
       </c>
       <c r="M4">
-        <v>1.053005809172049</v>
+        <v>1.06214512234548</v>
       </c>
       <c r="N4">
-        <v>1.016758325123245</v>
+        <v>1.017677570288323</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020705301685486</v>
+        <v>1.036819770597775</v>
       </c>
       <c r="D5">
-        <v>1.0395754455351</v>
+        <v>1.047127297153307</v>
       </c>
       <c r="E5">
-        <v>1.035397330005663</v>
+        <v>1.054488112567262</v>
       </c>
       <c r="F5">
-        <v>1.044380034997977</v>
+        <v>1.059950177415448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055130670878434</v>
+        <v>1.041776213751466</v>
       </c>
       <c r="J5">
-        <v>1.039152481355571</v>
+        <v>1.041250521789274</v>
       </c>
       <c r="K5">
-        <v>1.04900535699746</v>
+        <v>1.049532274176619</v>
       </c>
       <c r="L5">
-        <v>1.044872141531217</v>
+        <v>1.056875428476441</v>
       </c>
       <c r="M5">
-        <v>1.053758857341485</v>
+        <v>1.062324558135666</v>
       </c>
       <c r="N5">
-        <v>1.016931611482698</v>
+        <v>1.017716243058534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020870281542083</v>
+        <v>1.036855667380329</v>
       </c>
       <c r="D6">
-        <v>1.03970655850639</v>
+        <v>1.047156893217677</v>
       </c>
       <c r="E6">
-        <v>1.035563483399294</v>
+        <v>1.054528281902857</v>
       </c>
       <c r="F6">
-        <v>1.044543329979321</v>
+        <v>1.059988890027838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055183562589378</v>
+        <v>1.041785160590765</v>
       </c>
       <c r="J6">
-        <v>1.039239583184872</v>
+        <v>1.041270087827408</v>
       </c>
       <c r="K6">
-        <v>1.049099272260931</v>
+        <v>1.049553195852678</v>
       </c>
       <c r="L6">
-        <v>1.045000515022493</v>
+        <v>1.056906965522775</v>
       </c>
       <c r="M6">
-        <v>1.053884849409571</v>
+        <v>1.062354691315233</v>
       </c>
       <c r="N6">
-        <v>1.016960584447843</v>
+        <v>1.017722735073672</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019732356153422</v>
+        <v>1.036608870936071</v>
       </c>
       <c r="D7">
-        <v>1.038802384704095</v>
+        <v>1.046953414595403</v>
       </c>
       <c r="E7">
-        <v>1.034418189039074</v>
+        <v>1.054252178873394</v>
       </c>
       <c r="F7">
-        <v>1.043417536939563</v>
+        <v>1.059722777308023</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054817891196629</v>
+        <v>1.041723547034698</v>
       </c>
       <c r="J7">
-        <v>1.038638517798551</v>
+        <v>1.041135528890967</v>
       </c>
       <c r="K7">
-        <v>1.048451159637402</v>
+        <v>1.049409308121317</v>
       </c>
       <c r="L7">
-        <v>1.044115363841211</v>
+        <v>1.056690167528363</v>
       </c>
       <c r="M7">
-        <v>1.053015901586331</v>
+        <v>1.062147519631008</v>
       </c>
       <c r="N7">
-        <v>1.016760648827681</v>
+        <v>1.017678087123458</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014886865709825</v>
+        <v>1.035578226064459</v>
       </c>
       <c r="D8">
-        <v>1.034956501179763</v>
+        <v>1.046103654868505</v>
       </c>
       <c r="E8">
-        <v>1.029559674807687</v>
+        <v>1.053100839800707</v>
       </c>
       <c r="F8">
-        <v>1.038636710548867</v>
+        <v>1.058612538848348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05323943202164</v>
+        <v>1.041463691283664</v>
       </c>
       <c r="J8">
-        <v>1.036071871718481</v>
+        <v>1.040572625555898</v>
       </c>
       <c r="K8">
-        <v>1.045682901614254</v>
+        <v>1.048807234220372</v>
       </c>
       <c r="L8">
-        <v>1.040353591890598</v>
+        <v>1.055785410875086</v>
       </c>
       <c r="M8">
-        <v>1.049317570743997</v>
+        <v>1.061282328400967</v>
       </c>
       <c r="N8">
-        <v>1.015906869526708</v>
+        <v>1.017491278949368</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005990719997552</v>
+        <v>1.033765694863568</v>
       </c>
       <c r="D9">
-        <v>1.027914285054582</v>
+        <v>1.044609208921284</v>
       </c>
       <c r="E9">
-        <v>1.020710980164231</v>
+        <v>1.051082438263127</v>
       </c>
       <c r="F9">
-        <v>1.029910519850829</v>
+        <v>1.056664087244534</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050261964854609</v>
+        <v>1.040997097553789</v>
       </c>
       <c r="J9">
-        <v>1.031333689751025</v>
+        <v>1.039579031357058</v>
       </c>
       <c r="K9">
-        <v>1.040570143880414</v>
+        <v>1.047743955768867</v>
       </c>
       <c r="L9">
-        <v>1.033476741115621</v>
+        <v>1.05419658762216</v>
       </c>
       <c r="M9">
-        <v>1.042536268143971</v>
+        <v>1.059760697530194</v>
       </c>
       <c r="N9">
-        <v>1.014330759605868</v>
+        <v>1.017161422864993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9997976003891988</v>
+        <v>1.032559861566806</v>
       </c>
       <c r="D10">
-        <v>1.023026822661</v>
+        <v>1.043614996903641</v>
       </c>
       <c r="E10">
-        <v>1.014600322922673</v>
+        <v>1.049743948032356</v>
       </c>
       <c r="F10">
-        <v>1.02387186374206</v>
+        <v>1.055370569120651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048137648479403</v>
+        <v>1.040680238838056</v>
       </c>
       <c r="J10">
-        <v>1.028019250929108</v>
+        <v>1.038915574435501</v>
       </c>
       <c r="K10">
-        <v>1.036992405281596</v>
+        <v>1.047033606815372</v>
       </c>
       <c r="L10">
-        <v>1.028710874618776</v>
+        <v>1.053141149247747</v>
       </c>
       <c r="M10">
-        <v>1.037823078276167</v>
+        <v>1.058748357175249</v>
       </c>
       <c r="N10">
-        <v>1.013228351749142</v>
+        <v>1.016941090154963</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9970484854983244</v>
+        <v>1.032038341935415</v>
       </c>
       <c r="D11">
-        <v>1.020861408693987</v>
+        <v>1.043185009769091</v>
       </c>
       <c r="E11">
-        <v>1.011899826613138</v>
+        <v>1.049166077888386</v>
       </c>
       <c r="F11">
-        <v>1.021200249944667</v>
+        <v>1.054811778918844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047182945498058</v>
+        <v>1.040541671156482</v>
       </c>
       <c r="J11">
-        <v>1.02654456850614</v>
+        <v>1.038628054081653</v>
       </c>
       <c r="K11">
-        <v>1.035400348601309</v>
+        <v>1.046725680083826</v>
       </c>
       <c r="L11">
-        <v>1.026600765483466</v>
+        <v>1.052685049155085</v>
       </c>
       <c r="M11">
-        <v>1.035733137033569</v>
+        <v>1.058310516942593</v>
       </c>
       <c r="N11">
-        <v>1.012737907720031</v>
+        <v>1.016845587468678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9960167355804936</v>
+        <v>1.031844720325589</v>
       </c>
       <c r="D12">
-        <v>1.020049391846482</v>
+        <v>1.043025372373506</v>
       </c>
       <c r="E12">
-        <v>1.010888155011026</v>
+        <v>1.048951689313235</v>
       </c>
       <c r="F12">
-        <v>1.020198961479516</v>
+        <v>1.054604418436957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046822925149353</v>
+        <v>1.040489996580668</v>
       </c>
       <c r="J12">
-        <v>1.025990636272778</v>
+        <v>1.038521221530853</v>
       </c>
       <c r="K12">
-        <v>1.034802300326813</v>
+        <v>1.046611252541205</v>
       </c>
       <c r="L12">
-        <v>1.025809686413215</v>
+        <v>1.052515771902127</v>
       </c>
       <c r="M12">
-        <v>1.034949149652477</v>
+        <v>1.05814796186822</v>
       </c>
       <c r="N12">
-        <v>1.012553691939284</v>
+        <v>1.016810099360258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962385372824046</v>
+        <v>1.031886248536524</v>
       </c>
       <c r="D13">
-        <v>1.020223925135244</v>
+        <v>1.043059611533235</v>
       </c>
       <c r="E13">
-        <v>1.011105557132867</v>
+        <v>1.048997664677902</v>
       </c>
       <c r="F13">
-        <v>1.020414152008573</v>
+        <v>1.05464888892314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046900397885603</v>
+        <v>1.040501090187522</v>
       </c>
       <c r="J13">
-        <v>1.026109739703968</v>
+        <v>1.038544139025573</v>
       </c>
       <c r="K13">
-        <v>1.03493089044959</v>
+        <v>1.046635799870941</v>
       </c>
       <c r="L13">
-        <v>1.025979710656395</v>
+        <v>1.052552076147612</v>
       </c>
       <c r="M13">
-        <v>1.035117670832211</v>
+        <v>1.058182826913914</v>
       </c>
       <c r="N13">
-        <v>1.012593300566346</v>
+        <v>1.016817712313622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9969634199200348</v>
+        <v>1.032022335185103</v>
       </c>
       <c r="D14">
-        <v>1.020794445751266</v>
+        <v>1.043171812470409</v>
       </c>
       <c r="E14">
-        <v>1.011816379043483</v>
+        <v>1.049148351184769</v>
       </c>
       <c r="F14">
-        <v>1.021117667691467</v>
+        <v>1.054794634363923</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047153297266373</v>
+        <v>1.040537403884236</v>
       </c>
       <c r="J14">
-        <v>1.026498907550544</v>
+        <v>1.038619223970182</v>
       </c>
       <c r="K14">
-        <v>1.035351051642569</v>
+        <v>1.046716222476287</v>
       </c>
       <c r="L14">
-        <v>1.026535525224782</v>
+        <v>1.052671053806961</v>
       </c>
       <c r="M14">
-        <v>1.035668491143856</v>
+        <v>1.058297078482728</v>
       </c>
       <c r="N14">
-        <v>1.012722722516959</v>
+        <v>1.016842654296851</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9974086240184016</v>
+        <v>1.032106195168774</v>
       </c>
       <c r="D15">
-        <v>1.0211449344225</v>
+        <v>1.04324095369109</v>
       </c>
       <c r="E15">
-        <v>1.01225318990301</v>
+        <v>1.049241228378218</v>
       </c>
       <c r="F15">
-        <v>1.021549931197261</v>
+        <v>1.054884459380354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047308396156058</v>
+        <v>1.040559750894993</v>
       </c>
       <c r="J15">
-        <v>1.026737861963892</v>
+        <v>1.038665481722959</v>
       </c>
       <c r="K15">
-        <v>1.03560903304912</v>
+        <v>1.046765766934144</v>
       </c>
       <c r="L15">
-        <v>1.02687700526221</v>
+        <v>1.052744378288985</v>
       </c>
       <c r="M15">
-        <v>1.036006841022524</v>
+        <v>1.05836748306878</v>
       </c>
       <c r="N15">
-        <v>1.01280219059027</v>
+        <v>1.016858020012926</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9999785892504152</v>
+        <v>1.03259448619442</v>
       </c>
       <c r="D16">
-        <v>1.023169473500753</v>
+        <v>1.043643544706002</v>
       </c>
       <c r="E16">
-        <v>1.014778363805354</v>
+        <v>1.049782335460757</v>
       </c>
       <c r="F16">
-        <v>1.024047939415815</v>
+        <v>1.055407681993549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048200260742206</v>
+        <v>1.040689406413713</v>
       </c>
       <c r="J16">
-        <v>1.028116268691076</v>
+        <v>1.038934651281882</v>
       </c>
       <c r="K16">
-        <v>1.037097140849767</v>
+        <v>1.047054035832805</v>
       </c>
       <c r="L16">
-        <v>1.028849910661225</v>
+        <v>1.053171438458548</v>
       </c>
       <c r="M16">
-        <v>1.037960719964535</v>
+        <v>1.058777426074935</v>
       </c>
       <c r="N16">
-        <v>1.013260618655559</v>
+        <v>1.016947426344058</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001572276617287</v>
+        <v>1.032900943901498</v>
       </c>
       <c r="D17">
-        <v>1.024426053384484</v>
+        <v>1.043896218136554</v>
       </c>
       <c r="E17">
-        <v>1.016347465802042</v>
+        <v>1.050122215497885</v>
       </c>
       <c r="F17">
-        <v>1.02559938657726</v>
+        <v>1.055736238311642</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048750258104577</v>
+        <v>1.040770370820453</v>
       </c>
       <c r="J17">
-        <v>1.028970168348216</v>
+        <v>1.039103431086586</v>
       </c>
       <c r="K17">
-        <v>1.038018943776302</v>
+        <v>1.047234768989697</v>
       </c>
       <c r="L17">
-        <v>1.030074809979433</v>
+        <v>1.053439567275638</v>
       </c>
       <c r="M17">
-        <v>1.039172975472907</v>
+        <v>1.059034710177438</v>
       </c>
       <c r="N17">
-        <v>1.013544620646606</v>
+        <v>1.017003482869423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002495372544008</v>
+        <v>1.033079754636773</v>
       </c>
       <c r="D18">
-        <v>1.02515427835811</v>
+        <v>1.044043647668064</v>
       </c>
       <c r="E18">
-        <v>1.017257461635066</v>
+        <v>1.050320626144528</v>
       </c>
       <c r="F18">
-        <v>1.026498863298772</v>
+        <v>1.055928006076487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049067710334849</v>
+        <v>1.040817464157238</v>
       </c>
       <c r="J18">
-        <v>1.029464438052098</v>
+        <v>1.039201854335778</v>
       </c>
       <c r="K18">
-        <v>1.038552496643383</v>
+        <v>1.047340154593433</v>
       </c>
       <c r="L18">
-        <v>1.030784812434298</v>
+        <v>1.053596050131726</v>
       </c>
       <c r="M18">
-        <v>1.039875348346815</v>
+        <v>1.059184828718708</v>
       </c>
       <c r="N18">
-        <v>1.013709016150838</v>
+        <v>1.017036170287396</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002809040025082</v>
+        <v>1.033140734454989</v>
       </c>
       <c r="D19">
-        <v>1.025401793257979</v>
+        <v>1.04409392564977</v>
       </c>
       <c r="E19">
-        <v>1.01756687035782</v>
+        <v>1.050388306867781</v>
       </c>
       <c r="F19">
-        <v>1.026804647741755</v>
+        <v>1.055993415310878</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049175389617426</v>
+        <v>1.040833499382123</v>
       </c>
       <c r="J19">
-        <v>1.029632334343739</v>
+        <v>1.03923541015508</v>
       </c>
       <c r="K19">
-        <v>1.038733732954008</v>
+        <v>1.047376082723432</v>
       </c>
       <c r="L19">
-        <v>1.031026157488604</v>
+        <v>1.053649421592794</v>
       </c>
       <c r="M19">
-        <v>1.040114048794107</v>
+        <v>1.059236023534859</v>
       </c>
       <c r="N19">
-        <v>1.013764859612026</v>
+        <v>1.017047314243583</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001401962104999</v>
+        <v>1.032868057760218</v>
       </c>
       <c r="D20">
-        <v>1.024291724305008</v>
+        <v>1.043869103546189</v>
       </c>
       <c r="E20">
-        <v>1.016179660239543</v>
+        <v>1.050085732570551</v>
       </c>
       <c r="F20">
-        <v>1.02543349810861</v>
+        <v>1.055700974237061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048691596452453</v>
+        <v>1.040761697735908</v>
       </c>
       <c r="J20">
-        <v>1.028878947232127</v>
+        <v>1.039085324997</v>
       </c>
       <c r="K20">
-        <v>1.037920470849893</v>
+        <v>1.04721538143465</v>
       </c>
       <c r="L20">
-        <v>1.029943853447426</v>
+        <v>1.053410790492051</v>
       </c>
       <c r="M20">
-        <v>1.03904340186153</v>
+        <v>1.059007100939691</v>
       </c>
       <c r="N20">
-        <v>1.013514280580914</v>
+        <v>1.016997469504379</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9967502567660761</v>
+        <v>1.031982258450123</v>
       </c>
       <c r="D21">
-        <v>1.020626656367112</v>
+        <v>1.043138769895992</v>
       </c>
       <c r="E21">
-        <v>1.011607300015838</v>
+        <v>1.049103970622854</v>
       </c>
       <c r="F21">
-        <v>1.020910749696652</v>
+        <v>1.054751710452491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047078975164001</v>
+        <v>1.040526716040632</v>
       </c>
       <c r="J21">
-        <v>1.026384479573939</v>
+        <v>1.038597114273109</v>
       </c>
       <c r="K21">
-        <v>1.035227511302293</v>
+        <v>1.04669254138836</v>
       </c>
       <c r="L21">
-        <v>1.026372055527262</v>
+        <v>1.052636014011555</v>
       </c>
       <c r="M21">
-        <v>1.035506503183684</v>
+        <v>1.058263432068812</v>
       </c>
       <c r="N21">
-        <v>1.012684668006616</v>
+        <v>1.016835309891764</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9937639262300766</v>
+        <v>1.031425865992095</v>
       </c>
       <c r="D22">
-        <v>1.018277650820833</v>
+        <v>1.042680037968061</v>
       </c>
       <c r="E22">
-        <v>1.008682583158918</v>
+        <v>1.048488192335654</v>
       </c>
       <c r="F22">
-        <v>1.018015228712632</v>
+        <v>1.054156023442418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046033718599005</v>
+        <v>1.040377791713175</v>
       </c>
       <c r="J22">
-        <v>1.024780288081397</v>
+        <v>1.038289956722888</v>
       </c>
       <c r="K22">
-        <v>1.033495516306882</v>
+        <v>1.046363523399599</v>
       </c>
       <c r="L22">
-        <v>1.024083976613182</v>
+        <v>1.052149684175093</v>
       </c>
       <c r="M22">
-        <v>1.033238053493385</v>
+        <v>1.057796311689608</v>
       </c>
       <c r="N22">
-        <v>1.012151196537753</v>
+        <v>1.016733272008127</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.995353042289005</v>
+        <v>1.031720767948378</v>
       </c>
       <c r="D23">
-        <v>1.019527240856206</v>
+        <v>1.042923176424239</v>
       </c>
       <c r="E23">
-        <v>1.010237897045214</v>
+        <v>1.048814485743659</v>
       </c>
       <c r="F23">
-        <v>1.01955525478752</v>
+        <v>1.054471698452039</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0465908565376</v>
+        <v>1.040456851082996</v>
       </c>
       <c r="J23">
-        <v>1.025634177358264</v>
+        <v>1.038452805305327</v>
       </c>
       <c r="K23">
-        <v>1.034417445740613</v>
+        <v>1.046537968870904</v>
       </c>
       <c r="L23">
-        <v>1.025301052995105</v>
+        <v>1.052407420164735</v>
       </c>
       <c r="M23">
-        <v>1.034444944312258</v>
+        <v>1.058043897466387</v>
       </c>
       <c r="N23">
-        <v>1.012435150617641</v>
+        <v>1.016787371818179</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001478939877587</v>
+        <v>1.032882917409376</v>
       </c>
       <c r="D24">
-        <v>1.024352436388452</v>
+        <v>1.04388135531006</v>
       </c>
       <c r="E24">
-        <v>1.016255500499369</v>
+        <v>1.050102217127397</v>
       </c>
       <c r="F24">
-        <v>1.025508472800209</v>
+        <v>1.05571690816407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048718113474629</v>
+        <v>1.040765617136922</v>
       </c>
       <c r="J24">
-        <v>1.028920177840477</v>
+        <v>1.039093506431216</v>
       </c>
       <c r="K24">
-        <v>1.037964979238518</v>
+        <v>1.04722414193835</v>
       </c>
       <c r="L24">
-        <v>1.030003040829736</v>
+        <v>1.053423793210629</v>
       </c>
       <c r="M24">
-        <v>1.039101965148282</v>
+        <v>1.059019576214375</v>
       </c>
       <c r="N24">
-        <v>1.013527993832972</v>
+        <v>1.017000186714315</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008335156795022</v>
+        <v>1.034233840826107</v>
       </c>
       <c r="D25">
-        <v>1.029767729146729</v>
+        <v>1.044995199452532</v>
       </c>
       <c r="E25">
-        <v>1.023034462587683</v>
+        <v>1.051602998540882</v>
       </c>
       <c r="F25">
-        <v>1.032204036190947</v>
+        <v>1.057166856769974</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051055691911433</v>
+        <v>1.041118748476948</v>
       </c>
       <c r="J25">
-        <v>1.032585229243459</v>
+        <v>1.039836091601605</v>
       </c>
       <c r="K25">
-        <v>1.041920868572777</v>
+        <v>1.048019108498691</v>
       </c>
       <c r="L25">
-        <v>1.035285420067898</v>
+        <v>1.054606677876569</v>
       </c>
       <c r="M25">
-        <v>1.044322180047834</v>
+        <v>1.060153716184206</v>
       </c>
       <c r="N25">
-        <v>1.014747060285128</v>
+        <v>1.017246776024066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035313136245032</v>
+        <v>1.013615918416148</v>
       </c>
       <c r="D2">
-        <v>1.045885087409457</v>
+        <v>1.033948909554344</v>
       </c>
       <c r="E2">
-        <v>1.052805140006511</v>
+        <v>1.028290032833</v>
       </c>
       <c r="F2">
-        <v>1.0583272519715</v>
+        <v>1.037386091112558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041396201793307</v>
+        <v>1.052820031162211</v>
       </c>
       <c r="J2">
-        <v>1.040427594019254</v>
+        <v>1.035396869008927</v>
       </c>
       <c r="K2">
-        <v>1.048652073421774</v>
+        <v>1.044954706290991</v>
       </c>
       <c r="L2">
-        <v>1.055552857427916</v>
+        <v>1.039368824564985</v>
       </c>
       <c r="M2">
-        <v>1.061059789117118</v>
+        <v>1.048348036477465</v>
       </c>
       <c r="N2">
-        <v>1.017443140021282</v>
+        <v>1.015682331719054</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036097815517028</v>
+        <v>1.017348613702309</v>
       </c>
       <c r="D3">
-        <v>1.046532055325228</v>
+        <v>1.036909530271106</v>
       </c>
       <c r="E3">
-        <v>1.053680937752309</v>
+        <v>1.032024400373797</v>
       </c>
       <c r="F3">
-        <v>1.059172040103021</v>
+        <v>1.041063019707586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041595204610035</v>
+        <v>1.054045559300326</v>
       </c>
       <c r="J3">
-        <v>1.040856601863624</v>
+        <v>1.037377256811461</v>
       </c>
       <c r="K3">
-        <v>1.049111000415069</v>
+        <v>1.04709096201277</v>
       </c>
       <c r="L3">
-        <v>1.056241412644247</v>
+        <v>1.042263285778141</v>
       </c>
       <c r="M3">
-        <v>1.061718510450427</v>
+        <v>1.051196126721018</v>
       </c>
       <c r="N3">
-        <v>1.017585527122665</v>
+        <v>1.016341101042957</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036606015148782</v>
+        <v>1.019719138514404</v>
       </c>
       <c r="D4">
-        <v>1.04695106004817</v>
+        <v>1.038791884419026</v>
       </c>
       <c r="E4">
-        <v>1.054248984895267</v>
+        <v>1.034404895714029</v>
       </c>
       <c r="F4">
-        <v>1.059719698591816</v>
+        <v>1.043404467213625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041722832677424</v>
+        <v>1.054813632027216</v>
       </c>
       <c r="J4">
-        <v>1.041133971317666</v>
+        <v>1.038631532108072</v>
       </c>
       <c r="K4">
-        <v>1.049407642483705</v>
+        <v>1.048443626754214</v>
       </c>
       <c r="L4">
-        <v>1.056687659201148</v>
+        <v>1.044105086244849</v>
       </c>
       <c r="M4">
-        <v>1.06214512234548</v>
+        <v>1.05300580917205</v>
       </c>
       <c r="N4">
-        <v>1.017677570288323</v>
+        <v>1.016758325123245</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036819770597775</v>
+        <v>1.020705301685486</v>
       </c>
       <c r="D5">
-        <v>1.047127297153307</v>
+        <v>1.039575445535099</v>
       </c>
       <c r="E5">
-        <v>1.054488112567262</v>
+        <v>1.035397330005662</v>
       </c>
       <c r="F5">
-        <v>1.059950177415448</v>
+        <v>1.044380034997977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041776213751466</v>
+        <v>1.055130670878434</v>
       </c>
       <c r="J5">
-        <v>1.041250521789274</v>
+        <v>1.039152481355571</v>
       </c>
       <c r="K5">
-        <v>1.049532274176619</v>
+        <v>1.049005356997459</v>
       </c>
       <c r="L5">
-        <v>1.056875428476441</v>
+        <v>1.044872141531217</v>
       </c>
       <c r="M5">
-        <v>1.062324558135666</v>
+        <v>1.053758857341485</v>
       </c>
       <c r="N5">
-        <v>1.017716243058534</v>
+        <v>1.016931611482698</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036855667380329</v>
+        <v>1.020870281542083</v>
       </c>
       <c r="D6">
-        <v>1.047156893217677</v>
+        <v>1.03970655850639</v>
       </c>
       <c r="E6">
-        <v>1.054528281902857</v>
+        <v>1.035563483399294</v>
       </c>
       <c r="F6">
-        <v>1.059988890027838</v>
+        <v>1.04454332997932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041785160590765</v>
+        <v>1.055183562589378</v>
       </c>
       <c r="J6">
-        <v>1.041270087827408</v>
+        <v>1.039239583184872</v>
       </c>
       <c r="K6">
-        <v>1.049553195852678</v>
+        <v>1.04909927226093</v>
       </c>
       <c r="L6">
-        <v>1.056906965522775</v>
+        <v>1.045000515022493</v>
       </c>
       <c r="M6">
-        <v>1.062354691315233</v>
+        <v>1.053884849409571</v>
       </c>
       <c r="N6">
-        <v>1.017722735073672</v>
+        <v>1.016960584447843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036608870936071</v>
+        <v>1.019732356153422</v>
       </c>
       <c r="D7">
-        <v>1.046953414595403</v>
+        <v>1.038802384704096</v>
       </c>
       <c r="E7">
-        <v>1.054252178873394</v>
+        <v>1.034418189039074</v>
       </c>
       <c r="F7">
-        <v>1.059722777308023</v>
+        <v>1.043417536939563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041723547034698</v>
+        <v>1.054817891196629</v>
       </c>
       <c r="J7">
-        <v>1.041135528890967</v>
+        <v>1.038638517798552</v>
       </c>
       <c r="K7">
-        <v>1.049409308121317</v>
+        <v>1.048451159637403</v>
       </c>
       <c r="L7">
-        <v>1.056690167528363</v>
+        <v>1.044115363841211</v>
       </c>
       <c r="M7">
-        <v>1.062147519631008</v>
+        <v>1.053015901586332</v>
       </c>
       <c r="N7">
-        <v>1.017678087123458</v>
+        <v>1.016760648827681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035578226064459</v>
+        <v>1.014886865709824</v>
       </c>
       <c r="D8">
-        <v>1.046103654868505</v>
+        <v>1.034956501179762</v>
       </c>
       <c r="E8">
-        <v>1.053100839800707</v>
+        <v>1.029559674807687</v>
       </c>
       <c r="F8">
-        <v>1.058612538848348</v>
+        <v>1.038636710548866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041463691283664</v>
+        <v>1.053239432021639</v>
       </c>
       <c r="J8">
-        <v>1.040572625555898</v>
+        <v>1.03607187171848</v>
       </c>
       <c r="K8">
-        <v>1.048807234220372</v>
+        <v>1.045682901614253</v>
       </c>
       <c r="L8">
-        <v>1.055785410875086</v>
+        <v>1.040353591890597</v>
       </c>
       <c r="M8">
-        <v>1.061282328400967</v>
+        <v>1.049317570743997</v>
       </c>
       <c r="N8">
-        <v>1.017491278949368</v>
+        <v>1.015906869526707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033765694863568</v>
+        <v>1.005990719997554</v>
       </c>
       <c r="D9">
-        <v>1.044609208921284</v>
+        <v>1.027914285054584</v>
       </c>
       <c r="E9">
-        <v>1.051082438263127</v>
+        <v>1.020710980164232</v>
       </c>
       <c r="F9">
-        <v>1.056664087244534</v>
+        <v>1.029910519850831</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040997097553789</v>
+        <v>1.050261964854611</v>
       </c>
       <c r="J9">
-        <v>1.039579031357058</v>
+        <v>1.031333689751027</v>
       </c>
       <c r="K9">
-        <v>1.047743955768867</v>
+        <v>1.040570143880415</v>
       </c>
       <c r="L9">
-        <v>1.05419658762216</v>
+        <v>1.033476741115623</v>
       </c>
       <c r="M9">
-        <v>1.059760697530194</v>
+        <v>1.042536268143973</v>
       </c>
       <c r="N9">
-        <v>1.017161422864993</v>
+        <v>1.014330759605869</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032559861566806</v>
+        <v>0.9997976003891985</v>
       </c>
       <c r="D10">
-        <v>1.043614996903641</v>
+        <v>1.023026822661</v>
       </c>
       <c r="E10">
-        <v>1.049743948032356</v>
+        <v>1.014600322922673</v>
       </c>
       <c r="F10">
-        <v>1.055370569120651</v>
+        <v>1.02387186374206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040680238838056</v>
+        <v>1.048137648479403</v>
       </c>
       <c r="J10">
-        <v>1.038915574435501</v>
+        <v>1.028019250929108</v>
       </c>
       <c r="K10">
-        <v>1.047033606815372</v>
+        <v>1.036992405281595</v>
       </c>
       <c r="L10">
-        <v>1.053141149247747</v>
+        <v>1.028710874618776</v>
       </c>
       <c r="M10">
-        <v>1.058748357175249</v>
+        <v>1.037823078276167</v>
       </c>
       <c r="N10">
-        <v>1.016941090154963</v>
+        <v>1.013228351749142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032038341935415</v>
+        <v>0.997048485498324</v>
       </c>
       <c r="D11">
-        <v>1.043185009769091</v>
+        <v>1.020861408693987</v>
       </c>
       <c r="E11">
-        <v>1.049166077888386</v>
+        <v>1.011899826613138</v>
       </c>
       <c r="F11">
-        <v>1.054811778918844</v>
+        <v>1.021200249944667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040541671156482</v>
+        <v>1.047182945498058</v>
       </c>
       <c r="J11">
-        <v>1.038628054081653</v>
+        <v>1.02654456850614</v>
       </c>
       <c r="K11">
-        <v>1.046725680083826</v>
+        <v>1.035400348601309</v>
       </c>
       <c r="L11">
-        <v>1.052685049155085</v>
+        <v>1.026600765483466</v>
       </c>
       <c r="M11">
-        <v>1.058310516942593</v>
+        <v>1.035733137033569</v>
       </c>
       <c r="N11">
-        <v>1.016845587468678</v>
+        <v>1.012737907720031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031844720325589</v>
+        <v>0.996016735580493</v>
       </c>
       <c r="D12">
-        <v>1.043025372373506</v>
+        <v>1.020049391846481</v>
       </c>
       <c r="E12">
-        <v>1.048951689313235</v>
+        <v>1.010888155011026</v>
       </c>
       <c r="F12">
-        <v>1.054604418436957</v>
+        <v>1.020198961479516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040489996580668</v>
+        <v>1.046822925149353</v>
       </c>
       <c r="J12">
-        <v>1.038521221530853</v>
+        <v>1.025990636272778</v>
       </c>
       <c r="K12">
-        <v>1.046611252541205</v>
+        <v>1.034802300326812</v>
       </c>
       <c r="L12">
-        <v>1.052515771902127</v>
+        <v>1.025809686413215</v>
       </c>
       <c r="M12">
-        <v>1.05814796186822</v>
+        <v>1.034949149652476</v>
       </c>
       <c r="N12">
-        <v>1.016810099360258</v>
+        <v>1.012553691939284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031886248536524</v>
+        <v>0.9962385372824047</v>
       </c>
       <c r="D13">
-        <v>1.043059611533235</v>
+        <v>1.020223925135244</v>
       </c>
       <c r="E13">
-        <v>1.048997664677902</v>
+        <v>1.011105557132867</v>
       </c>
       <c r="F13">
-        <v>1.05464888892314</v>
+        <v>1.020414152008573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040501090187522</v>
+        <v>1.046900397885603</v>
       </c>
       <c r="J13">
-        <v>1.038544139025573</v>
+        <v>1.026109739703968</v>
       </c>
       <c r="K13">
-        <v>1.046635799870941</v>
+        <v>1.03493089044959</v>
       </c>
       <c r="L13">
-        <v>1.052552076147612</v>
+        <v>1.025979710656395</v>
       </c>
       <c r="M13">
-        <v>1.058182826913914</v>
+        <v>1.03511767083221</v>
       </c>
       <c r="N13">
-        <v>1.016817712313622</v>
+        <v>1.012593300566346</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032022335185103</v>
+        <v>0.9969634199200347</v>
       </c>
       <c r="D14">
-        <v>1.043171812470409</v>
+        <v>1.020794445751266</v>
       </c>
       <c r="E14">
-        <v>1.049148351184769</v>
+        <v>1.011816379043483</v>
       </c>
       <c r="F14">
-        <v>1.054794634363923</v>
+        <v>1.021117667691467</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040537403884236</v>
+        <v>1.047153297266373</v>
       </c>
       <c r="J14">
-        <v>1.038619223970182</v>
+        <v>1.026498907550543</v>
       </c>
       <c r="K14">
-        <v>1.046716222476287</v>
+        <v>1.035351051642569</v>
       </c>
       <c r="L14">
-        <v>1.052671053806961</v>
+        <v>1.026535525224782</v>
       </c>
       <c r="M14">
-        <v>1.058297078482728</v>
+        <v>1.035668491143856</v>
       </c>
       <c r="N14">
-        <v>1.016842654296851</v>
+        <v>1.012722722516959</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032106195168774</v>
+        <v>0.997408624018401</v>
       </c>
       <c r="D15">
-        <v>1.04324095369109</v>
+        <v>1.0211449344225</v>
       </c>
       <c r="E15">
-        <v>1.049241228378218</v>
+        <v>1.012253189903009</v>
       </c>
       <c r="F15">
-        <v>1.054884459380354</v>
+        <v>1.02154993119726</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040559750894993</v>
+        <v>1.047308396156058</v>
       </c>
       <c r="J15">
-        <v>1.038665481722959</v>
+        <v>1.026737861963891</v>
       </c>
       <c r="K15">
-        <v>1.046765766934144</v>
+        <v>1.035609033049119</v>
       </c>
       <c r="L15">
-        <v>1.052744378288985</v>
+        <v>1.026877005262209</v>
       </c>
       <c r="M15">
-        <v>1.05836748306878</v>
+        <v>1.036006841022523</v>
       </c>
       <c r="N15">
-        <v>1.016858020012926</v>
+        <v>1.01280219059027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03259448619442</v>
+        <v>0.9999785892504154</v>
       </c>
       <c r="D16">
-        <v>1.043643544706002</v>
+        <v>1.023169473500753</v>
       </c>
       <c r="E16">
-        <v>1.049782335460757</v>
+        <v>1.014778363805355</v>
       </c>
       <c r="F16">
-        <v>1.055407681993549</v>
+        <v>1.024047939415816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040689406413713</v>
+        <v>1.048200260742206</v>
       </c>
       <c r="J16">
-        <v>1.038934651281882</v>
+        <v>1.028116268691076</v>
       </c>
       <c r="K16">
-        <v>1.047054035832805</v>
+        <v>1.037097140849767</v>
       </c>
       <c r="L16">
-        <v>1.053171438458548</v>
+        <v>1.028849910661225</v>
       </c>
       <c r="M16">
-        <v>1.058777426074935</v>
+        <v>1.037960719964535</v>
       </c>
       <c r="N16">
-        <v>1.016947426344058</v>
+        <v>1.013260618655559</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032900943901498</v>
+        <v>1.001572276617288</v>
       </c>
       <c r="D17">
-        <v>1.043896218136554</v>
+        <v>1.024426053384484</v>
       </c>
       <c r="E17">
-        <v>1.050122215497885</v>
+        <v>1.016347465802042</v>
       </c>
       <c r="F17">
-        <v>1.055736238311642</v>
+        <v>1.02559938657726</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040770370820453</v>
+        <v>1.048750258104577</v>
       </c>
       <c r="J17">
-        <v>1.039103431086586</v>
+        <v>1.028970168348216</v>
       </c>
       <c r="K17">
-        <v>1.047234768989697</v>
+        <v>1.038018943776303</v>
       </c>
       <c r="L17">
-        <v>1.053439567275638</v>
+        <v>1.030074809979432</v>
       </c>
       <c r="M17">
-        <v>1.059034710177438</v>
+        <v>1.039172975472907</v>
       </c>
       <c r="N17">
-        <v>1.017003482869423</v>
+        <v>1.013544620646606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033079754636773</v>
+        <v>1.002495372544008</v>
       </c>
       <c r="D18">
-        <v>1.044043647668064</v>
+        <v>1.02515427835811</v>
       </c>
       <c r="E18">
-        <v>1.050320626144528</v>
+        <v>1.017257461635066</v>
       </c>
       <c r="F18">
-        <v>1.055928006076487</v>
+        <v>1.026498863298772</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040817464157238</v>
+        <v>1.049067710334849</v>
       </c>
       <c r="J18">
-        <v>1.039201854335778</v>
+        <v>1.029464438052099</v>
       </c>
       <c r="K18">
-        <v>1.047340154593433</v>
+        <v>1.038552496643383</v>
       </c>
       <c r="L18">
-        <v>1.053596050131726</v>
+        <v>1.030784812434298</v>
       </c>
       <c r="M18">
-        <v>1.059184828718708</v>
+        <v>1.039875348346815</v>
       </c>
       <c r="N18">
-        <v>1.017036170287396</v>
+        <v>1.013709016150839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033140734454989</v>
+        <v>1.002809040025081</v>
       </c>
       <c r="D19">
-        <v>1.04409392564977</v>
+        <v>1.025401793257978</v>
       </c>
       <c r="E19">
-        <v>1.050388306867781</v>
+        <v>1.017566870357819</v>
       </c>
       <c r="F19">
-        <v>1.055993415310878</v>
+        <v>1.026804647741754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040833499382123</v>
+        <v>1.049175389617425</v>
       </c>
       <c r="J19">
-        <v>1.03923541015508</v>
+        <v>1.029632334343738</v>
       </c>
       <c r="K19">
-        <v>1.047376082723432</v>
+        <v>1.038733732954007</v>
       </c>
       <c r="L19">
-        <v>1.053649421592794</v>
+        <v>1.031026157488604</v>
       </c>
       <c r="M19">
-        <v>1.059236023534859</v>
+        <v>1.040114048794106</v>
       </c>
       <c r="N19">
-        <v>1.017047314243583</v>
+        <v>1.013764859612026</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032868057760218</v>
+        <v>1.001401962104999</v>
       </c>
       <c r="D20">
-        <v>1.043869103546189</v>
+        <v>1.024291724305008</v>
       </c>
       <c r="E20">
-        <v>1.050085732570551</v>
+        <v>1.016179660239543</v>
       </c>
       <c r="F20">
-        <v>1.055700974237061</v>
+        <v>1.025433498108611</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040761697735908</v>
+        <v>1.048691596452453</v>
       </c>
       <c r="J20">
-        <v>1.039085324997</v>
+        <v>1.028878947232128</v>
       </c>
       <c r="K20">
-        <v>1.04721538143465</v>
+        <v>1.037920470849893</v>
       </c>
       <c r="L20">
-        <v>1.053410790492051</v>
+        <v>1.029943853447426</v>
       </c>
       <c r="M20">
-        <v>1.059007100939691</v>
+        <v>1.03904340186153</v>
       </c>
       <c r="N20">
-        <v>1.016997469504379</v>
+        <v>1.013514280580914</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031982258450123</v>
+        <v>0.9967502567660756</v>
       </c>
       <c r="D21">
-        <v>1.043138769895992</v>
+        <v>1.020626656367112</v>
       </c>
       <c r="E21">
-        <v>1.049103970622854</v>
+        <v>1.011607300015838</v>
       </c>
       <c r="F21">
-        <v>1.054751710452491</v>
+        <v>1.020910749696652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040526716040632</v>
+        <v>1.047078975164001</v>
       </c>
       <c r="J21">
-        <v>1.038597114273109</v>
+        <v>1.026384479573939</v>
       </c>
       <c r="K21">
-        <v>1.04669254138836</v>
+        <v>1.035227511302293</v>
       </c>
       <c r="L21">
-        <v>1.052636014011555</v>
+        <v>1.026372055527262</v>
       </c>
       <c r="M21">
-        <v>1.058263432068812</v>
+        <v>1.035506503183684</v>
       </c>
       <c r="N21">
-        <v>1.016835309891764</v>
+        <v>1.012684668006615</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031425865992095</v>
+        <v>0.9937639262300766</v>
       </c>
       <c r="D22">
-        <v>1.042680037968061</v>
+        <v>1.018277650820832</v>
       </c>
       <c r="E22">
-        <v>1.048488192335654</v>
+        <v>1.008682583158919</v>
       </c>
       <c r="F22">
-        <v>1.054156023442418</v>
+        <v>1.018015228712632</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040377791713175</v>
+        <v>1.046033718599005</v>
       </c>
       <c r="J22">
-        <v>1.038289956722888</v>
+        <v>1.024780288081397</v>
       </c>
       <c r="K22">
-        <v>1.046363523399599</v>
+        <v>1.033495516306882</v>
       </c>
       <c r="L22">
-        <v>1.052149684175093</v>
+        <v>1.024083976613182</v>
       </c>
       <c r="M22">
-        <v>1.057796311689608</v>
+        <v>1.033238053493385</v>
       </c>
       <c r="N22">
-        <v>1.016733272008127</v>
+        <v>1.012151196537753</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031720767948378</v>
+        <v>0.9953530422890047</v>
       </c>
       <c r="D23">
-        <v>1.042923176424239</v>
+        <v>1.019527240856206</v>
       </c>
       <c r="E23">
-        <v>1.048814485743659</v>
+        <v>1.010237897045214</v>
       </c>
       <c r="F23">
-        <v>1.054471698452039</v>
+        <v>1.019555254787519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040456851082996</v>
+        <v>1.0465908565376</v>
       </c>
       <c r="J23">
-        <v>1.038452805305327</v>
+        <v>1.025634177358264</v>
       </c>
       <c r="K23">
-        <v>1.046537968870904</v>
+        <v>1.034417445740613</v>
       </c>
       <c r="L23">
-        <v>1.052407420164735</v>
+        <v>1.025301052995105</v>
       </c>
       <c r="M23">
-        <v>1.058043897466387</v>
+        <v>1.034444944312257</v>
       </c>
       <c r="N23">
-        <v>1.016787371818179</v>
+        <v>1.012435150617641</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032882917409376</v>
+        <v>1.001478939877586</v>
       </c>
       <c r="D24">
-        <v>1.04388135531006</v>
+        <v>1.024352436388452</v>
       </c>
       <c r="E24">
-        <v>1.050102217127397</v>
+        <v>1.016255500499369</v>
       </c>
       <c r="F24">
-        <v>1.05571690816407</v>
+        <v>1.025508472800209</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040765617136922</v>
+        <v>1.048718113474629</v>
       </c>
       <c r="J24">
-        <v>1.039093506431216</v>
+        <v>1.028920177840477</v>
       </c>
       <c r="K24">
-        <v>1.04722414193835</v>
+        <v>1.037964979238519</v>
       </c>
       <c r="L24">
-        <v>1.053423793210629</v>
+        <v>1.030003040829737</v>
       </c>
       <c r="M24">
-        <v>1.059019576214375</v>
+        <v>1.039101965148283</v>
       </c>
       <c r="N24">
-        <v>1.017000186714315</v>
+        <v>1.013527993832972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034233840826107</v>
+        <v>1.008335156795021</v>
       </c>
       <c r="D25">
-        <v>1.044995199452532</v>
+        <v>1.029767729146728</v>
       </c>
       <c r="E25">
-        <v>1.051602998540882</v>
+        <v>1.023034462587683</v>
       </c>
       <c r="F25">
-        <v>1.057166856769974</v>
+        <v>1.032204036190946</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041118748476948</v>
+        <v>1.051055691911432</v>
       </c>
       <c r="J25">
-        <v>1.039836091601605</v>
+        <v>1.032585229243458</v>
       </c>
       <c r="K25">
-        <v>1.048019108498691</v>
+        <v>1.041920868572776</v>
       </c>
       <c r="L25">
-        <v>1.054606677876569</v>
+        <v>1.035285420067897</v>
       </c>
       <c r="M25">
-        <v>1.060153716184206</v>
+        <v>1.044322180047833</v>
       </c>
       <c r="N25">
-        <v>1.017246776024066</v>
+        <v>1.014747060285128</v>
       </c>
     </row>
   </sheetData>
